--- a/config_4.6/act_ty_phb_config.xlsx
+++ b/config_4.6/act_ty_phb_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,6 @@
   </si>
   <si>
     <t>need_num|限制</t>
-  </si>
-  <si>
-    <t>act_010_dlphb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ltqf_012_fqdr_rank</t>
@@ -198,6 +194,10 @@
       </rPr>
       <t>000</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_011_dlphb</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6">
         <v>1617667200</v>
@@ -702,7 +702,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K2" s="6"/>
     </row>
@@ -750,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -871,7 +871,7 @@
         <v>100000</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -888,7 +888,7 @@
         <v>60000</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -905,7 +905,7 @@
         <v>30000</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -922,7 +922,7 @@
         <v>15000</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -939,7 +939,7 @@
         <v>10000</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -956,7 +956,7 @@
         <v>6000</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -973,7 +973,7 @@
         <v>3000</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
